--- a/AI Use Anticipation.xlsx
+++ b/AI Use Anticipation.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloeshin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloeshin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FB80C7E-E1CC-DA44-BDC4-849EDE5C17F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{598BEEA9-26AC-DD41-8361-C00869DBDF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="1000" windowWidth="18320" windowHeight="15600" xr2:uid="{2E376E52-113A-0343-A156-49F6289666EE}"/>
+    <workbookView xWindow="1460" yWindow="760" windowWidth="26380" windowHeight="15600" xr2:uid="{2E376E52-113A-0343-A156-49F6289666EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Health</t>
   </si>
@@ -62,13 +62,18 @@
     <t>I Don't Know/NA</t>
   </si>
   <si>
-    <t>Overall</t>
-  </si>
-  <si>
     <t>Strongly Disagree</t>
   </si>
   <si>
     <t>Disagree</t>
+  </si>
+  <si>
+    <t>Area 
+of 
+Study</t>
+  </si>
+  <si>
+    <t>Content created by generative AI would get a good grade in my subject.: How far do you agree or disagree with the following statements?</t>
   </si>
 </sst>
 </file>
@@ -84,12 +89,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,8 +115,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,176 +472,149 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="8" width="23.33203125" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3">
+        <v>41</v>
+      </c>
+      <c r="F3" s="3">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2">
+        <v>116</v>
+      </c>
+      <c r="E4" s="2">
+        <v>97</v>
+      </c>
+      <c r="F4" s="2">
+        <v>82</v>
+      </c>
+      <c r="G4" s="2">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3">
+        <v>79</v>
+      </c>
+      <c r="E5" s="3">
+        <v>85</v>
+      </c>
+      <c r="F5" s="3">
+        <v>88</v>
+      </c>
+      <c r="G5" s="3">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>53</v>
-      </c>
-      <c r="D2">
-        <v>41</v>
-      </c>
-      <c r="E2">
-        <v>29</v>
-      </c>
-      <c r="F2">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="H2">
-        <f>SUM(B2:G2)</f>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>59</v>
-      </c>
-      <c r="C3">
-        <v>116</v>
-      </c>
-      <c r="D3">
-        <v>97</v>
-      </c>
-      <c r="E3">
-        <v>82</v>
-      </c>
-      <c r="F3">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H6" si="0">SUM(B3:G3)</f>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>27</v>
-      </c>
-      <c r="C4">
-        <v>79</v>
-      </c>
-      <c r="D4">
-        <v>85</v>
-      </c>
-      <c r="E4">
-        <v>88</v>
-      </c>
-      <c r="F4">
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
+      <c r="D6" s="2">
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="E6" s="2">
         <v>28</v>
       </c>
-      <c r="E5">
+      <c r="F6" s="2">
         <v>34</v>
       </c>
-      <c r="F5">
+      <c r="G6" s="2">
         <v>16</v>
       </c>
-      <c r="G5">
+      <c r="H6" s="2">
         <v>5</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <f>SUM(B2:B5)</f>
-        <v>111</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:G6" si="1">SUM(C2:C5)</f>
-        <v>278</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>251</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>233</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>995</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>